--- a/data/2025/2025-10.xlsx
+++ b/data/2025/2025-10.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,22 +482,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WFA137905</t>
+          <t>WFA137841</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZTE Corporation</t>
+          <t>Sichuan Changhong NeoNet Technologies Co., Ltd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LTE/WCDMA/GSM(GPRS) Multi-Mode Digital Mobile Phone</t>
+          <t>Wi-Fi Router</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Z2577</t>
+          <t>BWR-800E</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
@@ -505,7 +505,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Phones</t>
+          <t>Routers</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -515,37 +515,37 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>n, ac</t>
+          <t>n, ac, 6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WFA137841</t>
+          <t>WFA135136</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sichuan Changhong NeoNet Technologies Co., Ltd</t>
+          <t>BYD Auto Industry Company Limited</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Wi-Fi Router</t>
+          <t>In-vehicle Multimedia Host</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BWR-800E</t>
+          <t>MTCV03</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45961</v>
+        <v>45960</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Routers</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -562,22 +562,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WFA135136</t>
+          <t>WFA137151</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BYD Auto Industry Company Limited</t>
+          <t>Lumi United Technology Co., Ltd</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>In-vehicle Multimedia Host</t>
+          <t>Camera Hub G350</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MTCV03</t>
+          <t>CH-C05E</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Tablets, Ereaders &amp; Cameras</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -602,30 +602,30 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WFA137959</t>
+          <t>WFA137938</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Harman International Industries, Inc.</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TATA Gen3 plus</t>
+          <t>WE82242-H2-LT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COCKPIT CONTROLLER IVI IC HIGH7</t>
+          <t>WE82242-H2-LT</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45960</v>
+        <v>45959</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Routers</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -635,77 +635,77 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>n, ac</t>
+          <t>n, ac, 6, 7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WFA137777</t>
+          <t>WFA137879</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Siyata Mobile Inc.</t>
+          <t>WNC Corporation</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Siyata SD7 Ultra</t>
+          <t>Wi-Fi 7 Residential Gateway</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SD7 Ultra</t>
+          <t>BGW720-400</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45960</v>
+        <v>45959</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Phones</t>
+          <t>Routers</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.4 GHz; 5 GHz</t>
+          <t>2.4 GHz; 5 GHz; 6 GHz</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>n, ac</t>
+          <t>n, ac, 6, 7</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WFA137151</t>
+          <t>WFA137210</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lumi United Technology Co., Ltd</t>
+          <t>Nokia Corporation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Camera Hub G350</t>
+          <t>Beacon 4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CH-C05E</t>
+          <t>Beacon 4</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45960</v>
+        <v>45958</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tablets, Ereaders &amp; Cameras</t>
+          <t>Routers</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -715,77 +715,77 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>n, ac, 6</t>
+          <t>n, ac, 6, 7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WFA135834</t>
+          <t>WFA137863</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Premium Audio Company Technology Center K.K.</t>
+          <t>Hewlett Packard Enterprise</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Wireless Audio System</t>
+          <t>AP-76x</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The Sevens II</t>
+          <t>76x</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45960</v>
+        <v>45958</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gaming, Media &amp; Music</t>
+          <t>Routers</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.4 GHz; 5 GHz</t>
+          <t>2.4 GHz; 5 GHz; 6 GHz</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>n, ac</t>
+          <t>n, ac, 6, 7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WFA138053</t>
+          <t>WFA137784</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TCL Communication Ltd.</t>
+          <t>ZTE Corporation</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>T513G</t>
+          <t>Wireless Router</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>T513G</t>
+          <t>ZXHN Z3400</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45960</v>
+        <v>45957</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Phones</t>
+          <t>Routers</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -795,33 +795,33 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>n, ac</t>
+          <t>n, ac, 6, 7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WFA137938</t>
+          <t>WFA137788</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>ZTE Corporation</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>WE82242-H2-LT</t>
+          <t>Wireless Router</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>WE82242-H2-LT</t>
+          <t>ZXHN E5440</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45959</v>
+        <v>45957</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -842,26 +842,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>WFA137879</t>
+          <t>WFA137787</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WNC Corporation</t>
+          <t>ZTE Corporation</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Wi-Fi 7 Residential Gateway</t>
+          <t>Wireless Router</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BGW720-400</t>
+          <t>ZXHN E3401</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45959</v>
+        <v>45957</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.4 GHz; 5 GHz; 6 GHz</t>
+          <t>2.4 GHz; 5 GHz</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -882,26 +882,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WFA137210</t>
+          <t>WFA137786</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nokia Corporation</t>
+          <t>ZTE Corporation</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Beacon 4</t>
+          <t>Wireless Router</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Beacon 4</t>
+          <t>ZXHN E3400</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45958</v>
+        <v>45957</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -922,26 +922,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WFA137863</t>
+          <t>WFA137919</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hewlett Packard Enterprise</t>
+          <t>Huawei Technologies Co., Ltd.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AP-76x</t>
+          <t>Optical Network Terminal</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>76x</t>
+          <t>OptiXstar HG8145X7b-50</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45958</v>
+        <v>45957</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -950,42 +950,42 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.4 GHz; 5 GHz; 6 GHz</t>
+          <t>2.4 GHz; 5 GHz</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>n, ac, 6, 7</t>
+          <t>n, ac, 6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WFA120845</t>
+          <t>WFA137920</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Harman International Industries, Inc.</t>
+          <t>Huawei Technologies Co., Ltd.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TATA GEN3</t>
+          <t>Optical Network Terminal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>INFOTAINMENT,CONTROLLER IVI-MID + with updated firmware 13.40.5</t>
+          <t>OptiXstar HX8145B7Ns</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45958</v>
+        <v>45957</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Routers</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -995,47 +995,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>n, ac</t>
+          <t>n, ac, 6, 7</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>WFA137922</t>
+          <t>WFA137918</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Microchip Technology Inc.</t>
+          <t>Huawei Technologies Co., Ltd.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dual-Core Wi-Fi and Bluetooth LE Microcontroller</t>
+          <t>Optical Network Terminal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PIC32WM-BW1002</t>
+          <t>OptiXstar HG8145X7b-52</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45958</v>
+        <v>45957</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Routers</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.4 GHz</t>
+          <t>2.4 GHz; 5 GHz</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>WFA137789</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ZTE Corporation</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Wireless Router</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ZXHN E5441</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Routers</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>n, ac, 6, 7</t>
         </is>
       </c>
     </row>

--- a/data/2025/2025-10.xlsx
+++ b/data/2025/2025-10.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,26 +482,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WFA137841</t>
+          <t>WFA137879</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sichuan Changhong NeoNet Technologies Co., Ltd</t>
+          <t>WNC Corporation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wi-Fi Router</t>
+          <t>Wi-Fi 7 Residential Gateway</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BWR-800E</t>
+          <t>BGW720-400</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45961</v>
+        <v>45959</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -510,42 +510,42 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4 GHz; 5 GHz</t>
+          <t>2.4 GHz; 5 GHz; 6 GHz</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>n, ac, 6</t>
+          <t>n, ac, 6, 7</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WFA135136</t>
+          <t>WFA137938</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BYD Auto Industry Company Limited</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>In-vehicle Multimedia Host</t>
+          <t>WE82242-H2-LT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MTCV03</t>
+          <t>WE82242-H2-LT</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45960</v>
+        <v>45959</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Routers</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -555,37 +555,37 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>n, ac, 6</t>
+          <t>n, ac, 6, 7</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WFA137151</t>
+          <t>WFA137210</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lumi United Technology Co., Ltd</t>
+          <t>Nokia Corporation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Camera Hub G350</t>
+          <t>Beacon 4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CH-C05E</t>
+          <t>Beacon 4</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45960</v>
+        <v>45958</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tablets, Ereaders &amp; Cameras</t>
+          <t>Routers</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -595,33 +595,33 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>n, ac, 6</t>
+          <t>n, ac, 6, 7</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WFA137938</t>
+          <t>WFA137863</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Hewlett Packard Enterprise</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>WE82242-H2-LT</t>
+          <t>AP-76x</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>WE82242-H2-LT</t>
+          <t>76x</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45959</v>
+        <v>45958</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.4 GHz; 5 GHz</t>
+          <t>2.4 GHz; 5 GHz; 6 GHz</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -642,26 +642,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WFA137879</t>
+          <t>WFA137789</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WNC Corporation</t>
+          <t>ZTE Corporation</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wi-Fi 7 Residential Gateway</t>
+          <t>Wireless Router</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BGW720-400</t>
+          <t>ZXHN E5441</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45959</v>
+        <v>45957</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.4 GHz; 5 GHz; 6 GHz</t>
+          <t>2.4 GHz; 5 GHz</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -682,26 +682,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WFA137210</t>
+          <t>WFA137920</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nokia Corporation</t>
+          <t>Huawei Technologies Co., Ltd.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Beacon 4</t>
+          <t>Optical Network Terminal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Beacon 4</t>
+          <t>OptiXstar HX8145B7Ns</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45958</v>
+        <v>45957</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -722,26 +722,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WFA137863</t>
+          <t>WFA137784</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hewlett Packard Enterprise</t>
+          <t>ZTE Corporation</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AP-76x</t>
+          <t>Wireless Router</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>76x</t>
+          <t>ZXHN Z3400</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45958</v>
+        <v>45957</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.4 GHz; 5 GHz; 6 GHz</t>
+          <t>2.4 GHz; 5 GHz</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WFA137784</t>
+          <t>WFA137786</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ZXHN Z3400</t>
+          <t>ZXHN E3400</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
@@ -802,7 +802,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WFA137788</t>
+          <t>WFA137787</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ZXHN E5440</t>
+          <t>ZXHN E3401</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
@@ -842,7 +842,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>WFA137787</t>
+          <t>WFA137788</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ZXHN E3401</t>
+          <t>ZXHN E5440</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
@@ -882,26 +882,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WFA137786</t>
+          <t>WFA132231</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ZTE Corporation</t>
+          <t>H3C</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wireless Router</t>
+          <t>H3C WA7330X WLAN AP with H3C WX Series WLAN Controller</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ZXHN E3400</t>
+          <t>H3C WA7330X WLAN AP</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45957</v>
+        <v>45953</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.4 GHz; 5 GHz</t>
+          <t>2.4 GHz; 5 GHz; 6 GHz</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -922,26 +922,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WFA137919</t>
+          <t>WFA135655</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Huawei Technologies Co., Ltd.</t>
+          <t>NEC Corporation</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Optical Network Terminal</t>
+          <t>NEC QX-W1210</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>OptiXstar HG8145X7b-50</t>
+          <t>NEC QX-W1210</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45957</v>
+        <v>45953</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -950,38 +950,38 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.4 GHz; 5 GHz</t>
+          <t>2.4 GHz; 5 GHz; 6 GHz</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>n, ac, 6</t>
+          <t>n, ac, 6, 7</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WFA137920</t>
+          <t>WFA137892</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Huawei Technologies Co., Ltd.</t>
+          <t>Fortinet Inc.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Optical Network Terminal</t>
+          <t>FortiAP-244K</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>OptiXstar HX8145B7Ns</t>
+          <t>FortiAP-244K</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45957</v>
+        <v>45953</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.4 GHz; 5 GHz</t>
+          <t>2.4 GHz; 5 GHz; 6 GHz</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1002,26 +1002,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>WFA137918</t>
+          <t>WFA137489</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Huawei Technologies Co., Ltd.</t>
+          <t>Askey Computer Corporation</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Optical Network Terminal</t>
+          <t>WiFi 7 Extender</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>OptiXstar HG8145X7b-52</t>
+          <t>EBE1V1K</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45957</v>
+        <v>45952</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1030,38 +1030,38 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.4 GHz; 5 GHz</t>
+          <t>2.4 GHz; 5 GHz; 6 GHz</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>n, ac, 6</t>
+          <t>n, ac, 6, 7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>WFA137789</t>
+          <t>WFA135908</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ZTE Corporation</t>
+          <t>Askey Computer Corporation</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Wireless Router</t>
+          <t>Router Smart WiFi 7 Askey RTF8316VW</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ZXHN E5441</t>
+          <t>RTF8316VW, Router Smart WiFi 7 Askey RTF8316VW</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45957</v>
+        <v>45951</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1074,6 +1074,86 @@
         </is>
       </c>
       <c r="H16" t="inlineStr">
+        <is>
+          <t>n, ac, 6, 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>WFA137852</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MitraStar Technology Corporation</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Router Smart WiFi 7</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GPT-6841JL4L4v11</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Routers</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>n, ac, 6, 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>WFA133969</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fortinet Inc.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FortiAP-23JK</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>FortiAP-23JK</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Routers</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz; 6 GHz</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>n, ac, 6, 7</t>
         </is>

--- a/data/2025/2025-10.xlsx
+++ b/data/2025/2025-10.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,26 +482,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WFA137879</t>
+          <t>WFA137841</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WNC Corporation</t>
+          <t>Sichuan Changhong NeoNet Technologies Co., Ltd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wi-Fi 7 Residential Gateway</t>
+          <t>Wi-Fi Router</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BGW720-400</t>
+          <t>BWR-800E</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -510,42 +510,42 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4 GHz; 5 GHz; 6 GHz</t>
+          <t>2.4 GHz; 5 GHz</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>n, ac, 6, 7</t>
+          <t>n, ac, 6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WFA137938</t>
+          <t>WFA137905</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>ZTE Corporation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>WE82242-H2-LT</t>
+          <t>LTE/WCDMA/GSM(GPRS) Multi-Mode Digital Mobile Phone</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>WE82242-H2-LT</t>
+          <t>Z2577</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Routers</t>
+          <t>Phones</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -555,37 +555,37 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>n, ac, 6, 7</t>
+          <t>n, ac</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WFA137210</t>
+          <t>WFA137151</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nokia Corporation</t>
+          <t>Lumi United Technology Co., Ltd</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Beacon 4</t>
+          <t>Camera Hub G350</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Beacon 4</t>
+          <t>CH-C05E</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Routers</t>
+          <t>Tablets, Ereaders &amp; Cameras</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -595,77 +595,77 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>n, ac, 6, 7</t>
+          <t>n, ac, 6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WFA137863</t>
+          <t>WFA138053</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hewlett Packard Enterprise</t>
+          <t>TCL Communication Ltd.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AP-76x</t>
+          <t>T513G</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>76x</t>
+          <t>T513G</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Routers</t>
+          <t>Phones</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.4 GHz; 5 GHz; 6 GHz</t>
+          <t>2.4 GHz; 5 GHz</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>n, ac, 6, 7</t>
+          <t>n, ac</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WFA137789</t>
+          <t>WFA135834</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZTE Corporation</t>
+          <t>Premium Audio Company Technology Center K.K.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wireless Router</t>
+          <t>Wireless Audio System</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ZXHN E5441</t>
+          <t>The Sevens II</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Routers</t>
+          <t>Gaming, Media &amp; Music</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -675,37 +675,37 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>n, ac, 6, 7</t>
+          <t>n, ac</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WFA137920</t>
+          <t>WFA135136</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Huawei Technologies Co., Ltd.</t>
+          <t>BYD Auto Industry Company Limited</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Optical Network Terminal</t>
+          <t>In-vehicle Multimedia Host</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>OptiXstar HX8145B7Ns</t>
+          <t>MTCV03</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Routers</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -715,37 +715,37 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>n, ac, 6, 7</t>
+          <t>n, ac, 6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WFA137784</t>
+          <t>WFA137777</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZTE Corporation</t>
+          <t>Siyata Mobile Inc.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Wireless Router</t>
+          <t>Siyata SD7 Ultra</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ZXHN Z3400</t>
+          <t>SD7 Ultra</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Routers</t>
+          <t>Phones</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -755,33 +755,33 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>n, ac, 6, 7</t>
+          <t>n, ac</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WFA137786</t>
+          <t>WFA137938</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZTE Corporation</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Wireless Router</t>
+          <t>WE82242-H2-LT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ZXHN E3400</t>
+          <t>WE82242-H2-LT</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -802,26 +802,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WFA137787</t>
+          <t>WFA137879</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZTE Corporation</t>
+          <t>WNC Corporation</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Wireless Router</t>
+          <t>Wi-Fi 7 Residential Gateway</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ZXHN E3401</t>
+          <t>BGW720-400</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.4 GHz; 5 GHz</t>
+          <t>2.4 GHz; 5 GHz; 6 GHz</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -842,106 +842,106 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>WFA137788</t>
+          <t>WFA137922</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ZTE Corporation</t>
+          <t>Microchip Technology Inc.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Wireless Router</t>
+          <t>Dual-Core Wi-Fi and Bluetooth LE Microcontroller</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ZXHN E5440</t>
+          <t>PIC32WM-BW1002</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Routers</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.4 GHz; 5 GHz</t>
+          <t>2.4 GHz</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>n, ac, 6, 7</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WFA132231</t>
+          <t>WFA120845</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>H3C</t>
+          <t>Harman International Industries, Inc.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>H3C WA7330X WLAN AP with H3C WX Series WLAN Controller</t>
+          <t>TATA GEN3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>H3C WA7330X WLAN AP</t>
+          <t>INFOTAINMENT,CONTROLLER IVI-MID + with updated firmware 13.40.5</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45953</v>
+        <v>45958</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Routers</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.4 GHz; 5 GHz; 6 GHz</t>
+          <t>2.4 GHz; 5 GHz</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>n, ac, 6, 7</t>
+          <t>n, ac</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WFA135655</t>
+          <t>WFA137210</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NEC Corporation</t>
+          <t>Nokia Corporation</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NEC QX-W1210</t>
+          <t>Beacon 4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NEC QX-W1210</t>
+          <t>Beacon 4</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45953</v>
+        <v>45958</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.4 GHz; 5 GHz; 6 GHz</t>
+          <t>2.4 GHz; 5 GHz</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -962,26 +962,26 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WFA137892</t>
+          <t>WFA137863</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fortinet Inc.</t>
+          <t>Hewlett Packard Enterprise</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FortiAP-244K</t>
+          <t>AP-76x</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FortiAP-244K</t>
+          <t>76x</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45953</v>
+        <v>45958</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1002,26 +1002,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>WFA137489</t>
+          <t>WFA137866</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Askey Computer Corporation</t>
+          <t>ZTE Corporation</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>WiFi 7 Extender</t>
+          <t>Wireless Router</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>EBE1V1K</t>
+          <t>ZXHN E2300</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45952</v>
+        <v>45957</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1030,38 +1030,38 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.4 GHz; 5 GHz; 6 GHz</t>
+          <t>2.4 GHz; 5 GHz</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>n, ac, 6, 7</t>
+          <t>n, ac, 6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>WFA135908</t>
+          <t>WFA137920</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Askey Computer Corporation</t>
+          <t>Huawei Technologies Co., Ltd.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Router Smart WiFi 7 Askey RTF8316VW</t>
+          <t>Optical Network Terminal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>RTF8316VW, Router Smart WiFi 7 Askey RTF8316VW</t>
+          <t>OptiXstar HX8145B7Ns</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45951</v>
+        <v>45957</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1082,26 +1082,26 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>WFA137852</t>
+          <t>WFA137784</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MitraStar Technology Corporation</t>
+          <t>ZTE Corporation</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Router Smart WiFi 7</t>
+          <t>Wireless Router</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>GPT-6841JL4L4v11</t>
+          <t>ZXHN Z3400</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45951</v>
+        <v>45957</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1122,40 +1122,1680 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>WFA137786</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ZTE Corporation</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Wireless Router</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ZXHN E3400</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Routers</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>n, ac, 6, 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>WFA137789</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ZTE Corporation</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Wireless Router</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ZXHN E5441</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Routers</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>n, ac, 6, 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>WFA137788</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ZTE Corporation</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Wireless Router</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ZXHN E5440</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Routers</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>n, ac, 6, 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>WFA137867</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ZTE Corporation</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Wireless Router</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ZXHN E2301</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Routers</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>WFA137787</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ZTE Corporation</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Wireless Router</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ZXHN E3401</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Routers</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>n, ac, 6, 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>WFA133524</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HP Inc.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>HP Laser MFP 323sdnw</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>A58WKA</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Computers &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.4 GHz</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>WFA137919</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Huawei Technologies Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Optical Network Terminal</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>OptiXstar HG8145X7b-50</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Routers</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>WFA137918</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Huawei Technologies Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Optical Network Terminal</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>OptiXstar HG8145X7b-52</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Routers</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>WFA126882</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Robert Bosch GmbH</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Dual Mac MIMO Multimedia/Connectivity System</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Silverbox</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Routers</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>n, ac</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>WFA137792</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Neusoft Corporation</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SMART COCKPIT CONTROL UNIT</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>KYM2411MG</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>n, ac</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>WFA137897</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TCL Communication Ltd.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>9566X</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9566X</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tablets, Ereaders &amp; Cameras</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>n, ac</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>WFA137892</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Fortinet Inc.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>FortiAP-244K</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>FortiAP-244K</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Routers</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz; 6 GHz</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>n, ac, 6, 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>WFA135655</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>NEC Corporation</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NEC QX-W1210</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NEC QX-W1210</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Routers</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz; 6 GHz</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>n, ac, 6, 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>WFA137803</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>LG Electronics</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>LANR51</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>LANR51</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>n, ac</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>WFA132231</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>H3C</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>H3C WA7330X WLAN AP with H3C WX Series WLAN Controller</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>H3C WA7330X WLAN AP</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Routers</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz; 6 GHz</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>n, ac, 6, 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>WFA137790</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BiTECH Automotive(Wuhu) Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>T29</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>T29</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>WFA123248</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>9098</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9098</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>WFA137489</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Askey Computer Corporation</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>WiFi 7 Extender</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>EBE1V1K</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Routers</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz; 6 GHz</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>n, ac, 6, 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>WFA137888</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Panasonic Automotive Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Car Audio System</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CK-BS1DR0AEA</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>n, ac</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>WFA137852</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MitraStar Technology Corporation</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Router Smart WiFi 7</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GPT-6841JL4L4v11</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Routers</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>n, ac, 6, 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>WFA135908</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Askey Computer Corporation</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Router Smart WiFi 7 Askey RTF8316VW</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>RTF8316VW, Router Smart WiFi 7 Askey RTF8316VW</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Routers</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>n, ac, 6, 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>WFA137861</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Panasonic Automotive Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Car Audio System</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CK-BL5GN0FX</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>WFA137857</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Panasonic Automotive Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Car Audio System</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CK-BL5GE1AJ</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>WFA137856</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Panasonic Automotive Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Car Audio System</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CK-BL5GE0AJ</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>WFA137854</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Panasonic Automotive Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Car Audio System</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CK-BL5GE4AJ</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>WFA137847</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Panasonic Automotive Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Car Audio System</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CK-BL5GS1AJ</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>WFA137846</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Panasonic Automotive Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Car Audio System</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CK-BL5GF0AJ</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>WFA137845</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Panasonic Automotive Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Car Audio System</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CK-BL5GM1AJ</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>WFA137844</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Panasonic Automotive Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Car Audio System</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CK-BL5GM0AJ</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>WFA137858</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Panasonic Automotive Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Car Audio System</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CK-BL5GN1LX</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>WFA137842</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Panasonic Automotive Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Car Audio System</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CK-BL5GN1AJ</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>WFA137855</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Panasonic Automotive Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Car Audio System</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CK-BL5GE5AJ</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>WFA133969</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Fortinet Inc.</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>FortiAP-23JK</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>FortiAP-23JK</t>
         </is>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E50" s="2" t="n">
         <v>45950</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Routers</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>2.4 GHz; 5 GHz; 6 GHz</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>n, ac, 6, 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>WFA137848</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Panasonic Automotive Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Car Audio System</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CK-BL5GS2AJ</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>WFA137849</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Panasonic Automotive Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Car Audio System</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CK-BL5GS0AJ</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>WFA137850</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Panasonic Automotive Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Car Audio System</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>CK-BL5GA0AJ</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>WFA137851</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Panasonic Automotive Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Car Audio System</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>CK-BL5GE2AJ</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>WFA137853</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Panasonic Automotive Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Car Audio System</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CK-BL5GE3AJ</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>WFA137843</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Panasonic Automotive Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Car Audio System</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CK-BL5GN0AJ</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>WFA137859</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Panasonic Automotive Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Car Audio System</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CK-BL5GN0LX</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>WFA137860</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Panasonic Automotive Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Car Audio System</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CK-BL5GN1FX</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>n, ac, 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>WFA136162</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>AW590</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>AW590</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2.4 GHz; 5 GHz</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>n, ac</t>
         </is>
       </c>
     </row>
